--- a/Documents/Finance/Timesheets/Paul Mathema/Timesheet for Week 4.xlsx
+++ b/Documents/Finance/Timesheets/Paul Mathema/Timesheet for Week 4.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PM\Documents\GitHub\SWENG\Documents\Finance\Timesheets\Paul Mathema\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="25600" windowHeight="15520" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="435" windowWidth="25605" windowHeight="15525" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Weekly" sheetId="1" r:id="rId1"/>
@@ -14,7 +19,7 @@
   <definedNames>
     <definedName name="valuevx">Biweekly!$A$1</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -955,6 +960,43 @@
     <xf numFmtId="4" fontId="49" fillId="24" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="17" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="50" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -962,53 +1004,24 @@
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="17" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1340,29 +1353,29 @@
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" style="11" customWidth="1"/>
+    <col min="1" max="1" width="12.28515625" style="11" customWidth="1"/>
     <col min="2" max="8" width="9" style="11" customWidth="1"/>
-    <col min="9" max="9" width="11.1640625" style="11" customWidth="1"/>
+    <col min="9" max="9" width="11.140625" style="11" customWidth="1"/>
     <col min="10" max="10" width="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="31" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A1" s="38" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
+    <row r="1" spans="1:10" s="31" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
       <c r="J1" s="10"/>
     </row>
-    <row r="2" spans="1:10" s="11" customFormat="1" ht="15" customHeight="1">
+    <row r="2" spans="1:10" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10"/>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -1374,41 +1387,41 @@
       <c r="I2" s="29"/>
       <c r="J2" s="10"/>
     </row>
-    <row r="3" spans="1:10" s="11" customFormat="1" ht="21" customHeight="1">
-      <c r="A3" s="40" t="s">
+    <row r="3" spans="1:10" s="11" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
       <c r="F3" s="10"/>
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
       <c r="I3" s="10"/>
       <c r="J3" s="10"/>
     </row>
-    <row r="4" spans="1:10" s="11" customFormat="1" ht="15" customHeight="1">
-      <c r="A4" s="42"/>
-      <c r="B4" s="41"/>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="43" t="s">
+    <row r="4" spans="1:10" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="47"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="41"/>
-      <c r="G4" s="44" t="s">
+      <c r="F4" s="48"/>
+      <c r="G4" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="45"/>
-      <c r="I4" s="45"/>
+      <c r="H4" s="43"/>
+      <c r="I4" s="43"/>
       <c r="J4" s="10"/>
     </row>
-    <row r="5" spans="1:10" s="11" customFormat="1" ht="15" customHeight="1">
-      <c r="A5" s="42"/>
-      <c r="B5" s="41"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
+    <row r="5" spans="1:10" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="47"/>
+      <c r="B5" s="48"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
       <c r="E5" s="10"/>
       <c r="F5" s="10"/>
       <c r="G5" s="26"/>
@@ -1416,31 +1429,31 @@
       <c r="I5" s="30"/>
       <c r="J5" s="10"/>
     </row>
-    <row r="6" spans="1:10" s="11" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="42" t="s">
+    <row r="6" spans="1:10" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="41"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="43" t="s">
+      <c r="B6" s="48"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="41"/>
-      <c r="G6" s="54" t="s">
+      <c r="F6" s="48"/>
+      <c r="G6" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="H6" s="45"/>
-      <c r="I6" s="45"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="43"/>
       <c r="J6" s="10"/>
     </row>
-    <row r="7" spans="1:10" s="11" customFormat="1" ht="15" customHeight="1">
-      <c r="A7" s="42" t="s">
+    <row r="7" spans="1:10" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="41"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
+      <c r="B7" s="48"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="48"/>
       <c r="E7" s="10"/>
       <c r="F7" s="10"/>
       <c r="G7" s="26"/>
@@ -1448,27 +1461,27 @@
       <c r="I7" s="30"/>
       <c r="J7" s="10"/>
     </row>
-    <row r="8" spans="1:10" s="11" customFormat="1" ht="15" customHeight="1">
-      <c r="A8" s="42" t="s">
+    <row r="8" spans="1:10" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="41"/>
-      <c r="C8" s="41"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="43" t="s">
+      <c r="B8" s="48"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="41"/>
-      <c r="G8" s="46">
+      <c r="F8" s="48"/>
+      <c r="G8" s="44">
         <v>41666</v>
       </c>
-      <c r="H8" s="47"/>
+      <c r="H8" s="50"/>
       <c r="I8" s="33" t="s">
         <v>9</v>
       </c>
       <c r="J8" s="10"/>
     </row>
-    <row r="9" spans="1:10" s="11" customFormat="1" ht="15" customHeight="1">
+    <row r="9" spans="1:10" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="10"/>
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
@@ -1480,7 +1493,7 @@
       <c r="I9" s="10"/>
       <c r="J9" s="10"/>
     </row>
-    <row r="10" spans="1:10" s="23" customFormat="1" ht="27" customHeight="1">
+    <row r="10" spans="1:10" s="23" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
         <v>10</v>
       </c>
@@ -1510,7 +1523,7 @@
       </c>
       <c r="J10" s="10"/>
     </row>
-    <row r="11" spans="1:10" s="11" customFormat="1" ht="21" customHeight="1">
+    <row r="11" spans="1:10" s="11" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>19</v>
       </c>
@@ -1529,7 +1542,7 @@
       </c>
       <c r="J11" s="10"/>
     </row>
-    <row r="12" spans="1:10" s="11" customFormat="1" ht="21" customHeight="1">
+    <row r="12" spans="1:10" s="11" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>20</v>
       </c>
@@ -1548,7 +1561,7 @@
       </c>
       <c r="J12" s="10"/>
     </row>
-    <row r="13" spans="1:10" s="11" customFormat="1" ht="21" customHeight="1">
+    <row r="13" spans="1:10" s="11" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>21</v>
       </c>
@@ -1567,7 +1580,7 @@
       </c>
       <c r="J13" s="10"/>
     </row>
-    <row r="14" spans="1:10" s="11" customFormat="1" ht="21" customHeight="1">
+    <row r="14" spans="1:10" s="11" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>22</v>
       </c>
@@ -1586,7 +1599,7 @@
       </c>
       <c r="J14" s="10"/>
     </row>
-    <row r="15" spans="1:10" s="11" customFormat="1" ht="21" customHeight="1">
+    <row r="15" spans="1:10" s="11" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>23</v>
       </c>
@@ -1605,7 +1618,7 @@
       </c>
       <c r="J15" s="10"/>
     </row>
-    <row r="16" spans="1:10" s="11" customFormat="1" ht="21" customHeight="1">
+    <row r="16" spans="1:10" s="11" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>24</v>
       </c>
@@ -1622,7 +1635,7 @@
       </c>
       <c r="J16" s="10"/>
     </row>
-    <row r="17" spans="1:10" s="11" customFormat="1" ht="21" customHeight="1">
+    <row r="17" spans="1:10" s="11" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="32" t="s">
         <v>25</v>
       </c>
@@ -1639,7 +1652,7 @@
       </c>
       <c r="J17" s="10"/>
     </row>
-    <row r="18" spans="1:10" s="11" customFormat="1" ht="21" customHeight="1">
+    <row r="18" spans="1:10" s="11" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="28" t="s">
         <v>26</v>
       </c>
@@ -1676,7 +1689,7 @@
       </c>
       <c r="J18" s="10"/>
     </row>
-    <row r="19" spans="1:10" s="11" customFormat="1" ht="21" customHeight="1">
+    <row r="19" spans="1:10" s="11" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="16" t="s">
         <v>27</v>
       </c>
@@ -1706,7 +1719,7 @@
       <c r="I19" s="21"/>
       <c r="J19" s="10"/>
     </row>
-    <row r="20" spans="1:10" s="11" customFormat="1" ht="21" customHeight="1">
+    <row r="20" spans="1:10" s="11" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="24" t="s">
         <v>28</v>
       </c>
@@ -1744,7 +1757,7 @@
       </c>
       <c r="J20" s="10"/>
     </row>
-    <row r="21" spans="1:10" ht="15" customHeight="1">
+    <row r="21" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="10"/>
       <c r="B21" s="10"/>
       <c r="C21" s="10"/>
@@ -1756,12 +1769,12 @@
       <c r="I21" s="10"/>
       <c r="J21" s="10"/>
     </row>
-    <row r="22" spans="1:10" s="11" customFormat="1" ht="15" customHeight="1">
-      <c r="A22" s="43" t="s">
+    <row r="22" spans="1:10" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="B22" s="41"/>
-      <c r="C22" s="41"/>
+      <c r="B22" s="48"/>
+      <c r="C22" s="48"/>
       <c r="D22" s="3">
         <f>I18</f>
         <v>8</v>
@@ -1773,12 +1786,12 @@
       <c r="I22" s="10"/>
       <c r="J22" s="10"/>
     </row>
-    <row r="23" spans="1:10" s="11" customFormat="1" ht="15" customHeight="1">
-      <c r="A23" s="43" t="s">
+    <row r="23" spans="1:10" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="B23" s="41"/>
-      <c r="C23" s="41"/>
+      <c r="B23" s="48"/>
+      <c r="C23" s="48"/>
       <c r="D23" s="3">
         <f>I20</f>
         <v>100</v>
@@ -1790,7 +1803,7 @@
       <c r="I23" s="10"/>
       <c r="J23" s="10"/>
     </row>
-    <row r="24" spans="1:10" ht="15" customHeight="1">
+    <row r="24" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="10"/>
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>
@@ -1802,71 +1815,71 @@
       <c r="I24" s="10"/>
       <c r="J24" s="10"/>
     </row>
-    <row r="25" spans="1:10" s="11" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A25" s="44" t="s">
+    <row r="25" spans="1:10" s="11" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="B25" s="45"/>
-      <c r="C25" s="45"/>
-      <c r="D25" s="46">
+      <c r="B25" s="43"/>
+      <c r="C25" s="43"/>
+      <c r="D25" s="44">
         <v>41672</v>
       </c>
-      <c r="E25" s="45"/>
+      <c r="E25" s="43"/>
       <c r="F25" s="10"/>
       <c r="G25" s="10"/>
       <c r="H25" s="10"/>
       <c r="I25" s="10"/>
       <c r="J25" s="10"/>
     </row>
-    <row r="26" spans="1:10" s="11" customFormat="1" ht="15" customHeight="1">
-      <c r="A26" s="48" t="s">
+    <row r="26" spans="1:10" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="B26" s="49"/>
-      <c r="C26" s="49"/>
-      <c r="D26" s="48" t="s">
+      <c r="B26" s="39"/>
+      <c r="C26" s="39"/>
+      <c r="D26" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="E26" s="49"/>
+      <c r="E26" s="39"/>
       <c r="F26" s="10"/>
       <c r="G26" s="10"/>
       <c r="H26" s="10"/>
       <c r="I26" s="10"/>
       <c r="J26" s="10"/>
     </row>
-    <row r="27" spans="1:10" s="11" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A27" s="54" t="s">
+    <row r="27" spans="1:10" s="11" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="B27" s="45"/>
-      <c r="C27" s="45"/>
-      <c r="D27" s="55">
+      <c r="B27" s="43"/>
+      <c r="C27" s="43"/>
+      <c r="D27" s="46">
         <v>41682</v>
       </c>
-      <c r="E27" s="45"/>
+      <c r="E27" s="43"/>
       <c r="F27" s="10"/>
       <c r="G27" s="10"/>
       <c r="H27" s="10"/>
       <c r="I27" s="10"/>
       <c r="J27" s="10"/>
     </row>
-    <row r="28" spans="1:10" s="11" customFormat="1" ht="15" customHeight="1">
-      <c r="A28" s="48" t="s">
+    <row r="28" spans="1:10" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="B28" s="49"/>
-      <c r="C28" s="49"/>
-      <c r="D28" s="48" t="s">
+      <c r="B28" s="39"/>
+      <c r="C28" s="39"/>
+      <c r="D28" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="E28" s="49"/>
+      <c r="E28" s="39"/>
       <c r="F28" s="10"/>
       <c r="G28" s="10"/>
       <c r="H28" s="10"/>
       <c r="I28" s="10"/>
       <c r="J28" s="10"/>
     </row>
-    <row r="29" spans="1:10" s="11" customFormat="1" ht="15" customHeight="1">
+    <row r="29" spans="1:10" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="10"/>
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>
@@ -1878,20 +1891,35 @@
       <c r="I29" s="10"/>
       <c r="J29" s="10"/>
     </row>
-    <row r="30" spans="1:10" ht="15" customHeight="1">
-      <c r="A30" s="50"/>
-      <c r="B30" s="50"/>
-      <c r="C30" s="50"/>
+    <row r="30" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="40"/>
+      <c r="B30" s="40"/>
+      <c r="C30" s="40"/>
       <c r="D30" s="10"/>
       <c r="E30" s="10"/>
       <c r="F30" s="10"/>
-      <c r="G30" s="51"/>
-      <c r="H30" s="51"/>
-      <c r="I30" s="51"/>
+      <c r="G30" s="41"/>
+      <c r="H30" s="41"/>
+      <c r="I30" s="41"/>
       <c r="J30" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A23:C23"/>
     <mergeCell ref="A28:C28"/>
     <mergeCell ref="D28:E28"/>
     <mergeCell ref="A30:C30"/>
@@ -1902,21 +1930,6 @@
     <mergeCell ref="D26:E26"/>
     <mergeCell ref="A27:C27"/>
     <mergeCell ref="D27:E27"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:I4"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
@@ -1933,29 +1946,29 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" style="11" customWidth="1"/>
+    <col min="1" max="1" width="12.28515625" style="11" customWidth="1"/>
     <col min="2" max="8" width="9" style="11" customWidth="1"/>
-    <col min="9" max="9" width="11.1640625" style="11" customWidth="1"/>
-    <col min="10" max="10" width="2.33203125" customWidth="1"/>
+    <col min="9" max="9" width="11.140625" style="11" customWidth="1"/>
+    <col min="10" max="10" width="2.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="31" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A1" s="52" t="s">
+    <row r="1" spans="1:10" s="31" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
       <c r="J1" s="10"/>
     </row>
-    <row r="2" spans="1:10" s="11" customFormat="1" ht="15" customHeight="1">
+    <row r="2" spans="1:10" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10"/>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -1970,7 +1983,7 @@
       </c>
       <c r="J2" s="10"/>
     </row>
-    <row r="3" spans="1:10" ht="15" customHeight="1">
+    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="10"/>
       <c r="C3" s="10"/>
       <c r="D3" s="10"/>
@@ -1980,41 +1993,41 @@
       <c r="H3" s="10"/>
       <c r="J3" s="11"/>
     </row>
-    <row r="4" spans="1:10" s="11" customFormat="1" ht="21" customHeight="1">
-      <c r="A4" s="40" t="s">
+    <row r="4" spans="1:10" s="11" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="53" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="41"/>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
       <c r="F4" s="10"/>
       <c r="G4" s="10"/>
       <c r="H4" s="10"/>
       <c r="I4" s="10"/>
       <c r="J4" s="10"/>
     </row>
-    <row r="5" spans="1:10" s="11" customFormat="1" ht="15" customHeight="1">
-      <c r="A5" s="42"/>
-      <c r="B5" s="41"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="43" t="s">
+    <row r="5" spans="1:10" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="47"/>
+      <c r="B5" s="48"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="41"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="45"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="43"/>
+      <c r="I5" s="43"/>
       <c r="J5" s="10"/>
     </row>
-    <row r="6" spans="1:10" s="11" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="42" t="s">
+    <row r="6" spans="1:10" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="41"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
       <c r="E6" s="10"/>
       <c r="F6" s="10"/>
       <c r="G6" s="26"/>
@@ -2022,29 +2035,29 @@
       <c r="I6" s="30"/>
       <c r="J6" s="10"/>
     </row>
-    <row r="7" spans="1:10" s="11" customFormat="1" ht="15" customHeight="1">
-      <c r="A7" s="42" t="s">
+    <row r="7" spans="1:10" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="41"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="43" t="s">
+      <c r="B7" s="48"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="41"/>
-      <c r="G7" s="44"/>
-      <c r="H7" s="45"/>
-      <c r="I7" s="45"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="43"/>
+      <c r="I7" s="43"/>
       <c r="J7" s="10"/>
     </row>
-    <row r="8" spans="1:10" s="11" customFormat="1" ht="15" customHeight="1">
-      <c r="A8" s="42" t="s">
+    <row r="8" spans="1:10" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="41"/>
-      <c r="C8" s="41"/>
-      <c r="D8" s="41"/>
+      <c r="B8" s="48"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="48"/>
       <c r="E8" s="10"/>
       <c r="F8" s="10"/>
       <c r="G8" s="26"/>
@@ -2052,27 +2065,27 @@
       <c r="I8" s="30"/>
       <c r="J8" s="10"/>
     </row>
-    <row r="9" spans="1:10" s="11" customFormat="1" ht="15" customHeight="1">
-      <c r="A9" s="42" t="s">
+    <row r="9" spans="1:10" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="41"/>
-      <c r="C9" s="41"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="43" t="s">
+      <c r="B9" s="48"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="41"/>
-      <c r="G9" s="46">
+      <c r="F9" s="48"/>
+      <c r="G9" s="44">
         <v>39727</v>
       </c>
-      <c r="H9" s="45"/>
+      <c r="H9" s="43"/>
       <c r="I9" s="33" t="s">
         <v>9</v>
       </c>
       <c r="J9" s="10"/>
     </row>
-    <row r="10" spans="1:10" s="11" customFormat="1" ht="15" customHeight="1">
+    <row r="10" spans="1:10" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="10"/>
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
@@ -2084,7 +2097,7 @@
       <c r="I10" s="10"/>
       <c r="J10" s="10"/>
     </row>
-    <row r="11" spans="1:10" s="23" customFormat="1" ht="27" customHeight="1">
+    <row r="11" spans="1:10" s="23" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
         <v>10</v>
       </c>
@@ -2114,7 +2127,7 @@
       </c>
       <c r="J11" s="10"/>
     </row>
-    <row r="12" spans="1:10" s="11" customFormat="1" ht="21" customHeight="1">
+    <row r="12" spans="1:10" s="11" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="27">
         <f>G9</f>
         <v>39727</v>
@@ -2132,7 +2145,7 @@
       </c>
       <c r="J12" s="10"/>
     </row>
-    <row r="13" spans="1:10" s="11" customFormat="1" ht="21" customHeight="1">
+    <row r="13" spans="1:10" s="11" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="18">
         <f t="shared" ref="A13:A18" si="1">A12+1</f>
         <v>39728</v>
@@ -2154,7 +2167,7 @@
       </c>
       <c r="J13" s="10"/>
     </row>
-    <row r="14" spans="1:10" s="11" customFormat="1" ht="21" customHeight="1">
+    <row r="14" spans="1:10" s="11" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="18">
         <f t="shared" si="1"/>
         <v>39729</v>
@@ -2172,7 +2185,7 @@
       </c>
       <c r="J14" s="10"/>
     </row>
-    <row r="15" spans="1:10" s="11" customFormat="1" ht="21" customHeight="1">
+    <row r="15" spans="1:10" s="11" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="18">
         <f t="shared" si="1"/>
         <v>39730</v>
@@ -2190,7 +2203,7 @@
       </c>
       <c r="J15" s="10"/>
     </row>
-    <row r="16" spans="1:10" s="11" customFormat="1" ht="21" customHeight="1">
+    <row r="16" spans="1:10" s="11" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="18">
         <f t="shared" si="1"/>
         <v>39731</v>
@@ -2208,7 +2221,7 @@
       </c>
       <c r="J16" s="10"/>
     </row>
-    <row r="17" spans="1:10" s="11" customFormat="1" ht="21" customHeight="1">
+    <row r="17" spans="1:10" s="11" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="18">
         <f t="shared" si="1"/>
         <v>39732</v>
@@ -2226,7 +2239,7 @@
       </c>
       <c r="J17" s="10"/>
     </row>
-    <row r="18" spans="1:10" s="11" customFormat="1" ht="21" customHeight="1">
+    <row r="18" spans="1:10" s="11" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="18">
         <f t="shared" si="1"/>
         <v>39733</v>
@@ -2244,7 +2257,7 @@
       </c>
       <c r="J18" s="10"/>
     </row>
-    <row r="19" spans="1:10" s="11" customFormat="1" ht="15" customHeight="1">
+    <row r="19" spans="1:10" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -2256,7 +2269,7 @@
       <c r="I19" s="34"/>
       <c r="J19" s="10"/>
     </row>
-    <row r="20" spans="1:10" s="11" customFormat="1" ht="21" customHeight="1">
+    <row r="20" spans="1:10" s="11" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="18">
         <f>A18+1</f>
         <v>39734</v>
@@ -2274,7 +2287,7 @@
       </c>
       <c r="J20" s="10"/>
     </row>
-    <row r="21" spans="1:10" s="11" customFormat="1" ht="21" customHeight="1">
+    <row r="21" spans="1:10" s="11" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="18">
         <f t="shared" ref="A21:A26" si="3">A20+1</f>
         <v>39735</v>
@@ -2292,7 +2305,7 @@
       </c>
       <c r="J21" s="10"/>
     </row>
-    <row r="22" spans="1:10" s="11" customFormat="1" ht="21" customHeight="1">
+    <row r="22" spans="1:10" s="11" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="18">
         <f t="shared" si="3"/>
         <v>39736</v>
@@ -2310,7 +2323,7 @@
       </c>
       <c r="J22" s="10"/>
     </row>
-    <row r="23" spans="1:10" s="11" customFormat="1" ht="21" customHeight="1">
+    <row r="23" spans="1:10" s="11" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="18">
         <f t="shared" si="3"/>
         <v>39737</v>
@@ -2328,7 +2341,7 @@
       </c>
       <c r="J23" s="10"/>
     </row>
-    <row r="24" spans="1:10" s="11" customFormat="1" ht="21" customHeight="1">
+    <row r="24" spans="1:10" s="11" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="18">
         <f t="shared" si="3"/>
         <v>39738</v>
@@ -2346,7 +2359,7 @@
       </c>
       <c r="J24" s="10"/>
     </row>
-    <row r="25" spans="1:10" s="11" customFormat="1" ht="21" customHeight="1">
+    <row r="25" spans="1:10" s="11" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="18">
         <f t="shared" si="3"/>
         <v>39739</v>
@@ -2364,7 +2377,7 @@
       </c>
       <c r="J25" s="10"/>
     </row>
-    <row r="26" spans="1:10" s="11" customFormat="1" ht="21" customHeight="1">
+    <row r="26" spans="1:10" s="11" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="18">
         <f t="shared" si="3"/>
         <v>39740</v>
@@ -2382,7 +2395,7 @@
       </c>
       <c r="J26" s="10"/>
     </row>
-    <row r="27" spans="1:10" s="11" customFormat="1" ht="21" customHeight="1">
+    <row r="27" spans="1:10" s="11" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
@@ -2420,7 +2433,7 @@
       </c>
       <c r="J27" s="10"/>
     </row>
-    <row r="28" spans="1:10" s="11" customFormat="1" ht="21" customHeight="1">
+    <row r="28" spans="1:10" s="11" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="16" t="s">
         <v>27</v>
       </c>
@@ -2450,7 +2463,7 @@
       <c r="I28" s="21"/>
       <c r="J28" s="10"/>
     </row>
-    <row r="29" spans="1:10" s="11" customFormat="1" ht="21" customHeight="1">
+    <row r="29" spans="1:10" s="11" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="24" t="s">
         <v>28</v>
       </c>
@@ -2488,7 +2501,7 @@
       </c>
       <c r="J29" s="10"/>
     </row>
-    <row r="30" spans="1:10" ht="15" customHeight="1">
+    <row r="30" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="10"/>
       <c r="B30" s="10"/>
       <c r="C30" s="10"/>
@@ -2500,12 +2513,12 @@
       <c r="I30" s="10"/>
       <c r="J30" s="10"/>
     </row>
-    <row r="31" spans="1:10" s="11" customFormat="1" ht="15" customHeight="1">
-      <c r="A31" s="43" t="s">
+    <row r="31" spans="1:10" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="B31" s="41"/>
-      <c r="C31" s="41"/>
+      <c r="B31" s="48"/>
+      <c r="C31" s="48"/>
       <c r="D31" s="3">
         <f>I27</f>
         <v>8.43</v>
@@ -2517,12 +2530,12 @@
       <c r="I31" s="10"/>
       <c r="J31" s="10"/>
     </row>
-    <row r="32" spans="1:10" s="11" customFormat="1" ht="15" customHeight="1">
-      <c r="A32" s="43" t="s">
+    <row r="32" spans="1:10" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="B32" s="41"/>
-      <c r="C32" s="41"/>
+      <c r="B32" s="48"/>
+      <c r="C32" s="48"/>
       <c r="D32" s="3">
         <f>I29</f>
         <v>129.88999999999999</v>
@@ -2534,7 +2547,7 @@
       <c r="I32" s="10"/>
       <c r="J32" s="10"/>
     </row>
-    <row r="33" spans="1:10" ht="15" customHeight="1">
+    <row r="33" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="10"/>
       <c r="B33" s="10"/>
       <c r="C33" s="10"/>
@@ -2546,63 +2559,63 @@
       <c r="I33" s="10"/>
       <c r="J33" s="10"/>
     </row>
-    <row r="34" spans="1:10" s="11" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A34" s="44"/>
-      <c r="B34" s="45"/>
-      <c r="C34" s="45"/>
-      <c r="D34" s="44"/>
-      <c r="E34" s="45"/>
+    <row r="34" spans="1:10" s="11" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="42"/>
+      <c r="B34" s="43"/>
+      <c r="C34" s="43"/>
+      <c r="D34" s="42"/>
+      <c r="E34" s="43"/>
       <c r="F34" s="10"/>
       <c r="G34" s="10"/>
       <c r="H34" s="10"/>
       <c r="I34" s="10"/>
       <c r="J34" s="10"/>
     </row>
-    <row r="35" spans="1:10" s="11" customFormat="1" ht="15" customHeight="1">
-      <c r="A35" s="48" t="s">
+    <row r="35" spans="1:10" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="B35" s="49"/>
-      <c r="C35" s="49"/>
-      <c r="D35" s="48" t="s">
+      <c r="B35" s="39"/>
+      <c r="C35" s="39"/>
+      <c r="D35" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="E35" s="49"/>
+      <c r="E35" s="39"/>
       <c r="F35" s="10"/>
       <c r="G35" s="10"/>
       <c r="H35" s="10"/>
       <c r="I35" s="10"/>
       <c r="J35" s="10"/>
     </row>
-    <row r="36" spans="1:10" s="11" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A36" s="44"/>
-      <c r="B36" s="45"/>
-      <c r="C36" s="45"/>
-      <c r="D36" s="44"/>
-      <c r="E36" s="45"/>
+    <row r="36" spans="1:10" s="11" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="42"/>
+      <c r="B36" s="43"/>
+      <c r="C36" s="43"/>
+      <c r="D36" s="42"/>
+      <c r="E36" s="43"/>
       <c r="F36" s="10"/>
       <c r="G36" s="10"/>
       <c r="H36" s="10"/>
       <c r="I36" s="10"/>
       <c r="J36" s="10"/>
     </row>
-    <row r="37" spans="1:10" s="11" customFormat="1" ht="15" customHeight="1">
-      <c r="A37" s="48" t="s">
+    <row r="37" spans="1:10" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="B37" s="49"/>
-      <c r="C37" s="49"/>
-      <c r="D37" s="48" t="s">
+      <c r="B37" s="39"/>
+      <c r="C37" s="39"/>
+      <c r="D37" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="E37" s="49"/>
+      <c r="E37" s="39"/>
       <c r="F37" s="10"/>
       <c r="G37" s="10"/>
       <c r="H37" s="10"/>
       <c r="I37" s="10"/>
       <c r="J37" s="10"/>
     </row>
-    <row r="38" spans="1:10" s="11" customFormat="1" ht="15" customHeight="1">
+    <row r="38" spans="1:10" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="10"/>
       <c r="B38" s="10"/>
       <c r="C38" s="10"/>
@@ -2614,26 +2627,41 @@
       <c r="I38" s="10"/>
       <c r="J38" s="10"/>
     </row>
-    <row r="39" spans="1:10" ht="15" customHeight="1">
-      <c r="A39" s="50" t="str">
+    <row r="39" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="40" t="str">
         <f>HYPERLINK("http://www.vertex42.com/ExcelTemplates/excel-timesheet.html","Employee Timesheet Template")</f>
         <v>Employee Timesheet Template</v>
       </c>
-      <c r="B39" s="50"/>
-      <c r="C39" s="50"/>
+      <c r="B39" s="40"/>
+      <c r="C39" s="40"/>
       <c r="D39" s="10"/>
       <c r="E39" s="10"/>
       <c r="F39" s="10"/>
-      <c r="G39" s="51" t="str">
+      <c r="G39" s="41" t="str">
         <f>HYPERLINK("http://www.vertex42.com/ExcelTemplates/","Templates by Vertex42.com")</f>
         <v>Templates by Vertex42.com</v>
       </c>
-      <c r="H39" s="51"/>
-      <c r="I39" s="51"/>
+      <c r="H39" s="41"/>
+      <c r="I39" s="41"/>
       <c r="J39" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A32:C32"/>
     <mergeCell ref="A37:C37"/>
     <mergeCell ref="D37:E37"/>
     <mergeCell ref="A39:C39"/>
@@ -2644,21 +2672,6 @@
     <mergeCell ref="D35:E35"/>
     <mergeCell ref="A36:C36"/>
     <mergeCell ref="D36:E36"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:I5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
@@ -2675,12 +2688,12 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="17.1640625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="35.33203125" customWidth="1"/>
+    <col min="1" max="1" width="35.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1" s="36" t="str">
         <f>HYPERLINK("http://www.vertex42.com/ExcelTemplates/excel-timesheet.html","Employee Timesheet Template")</f>
         <v>Employee Timesheet Template</v>
@@ -2691,7 +2704,7 @@
       <c r="E1" s="10"/>
       <c r="F1" s="10"/>
     </row>
-    <row r="2" spans="1:6" ht="12.75" customHeight="1">
+    <row r="2" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10"/>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -2699,7 +2712,7 @@
       <c r="E2" s="10"/>
       <c r="F2" s="10"/>
     </row>
-    <row r="3" spans="1:6" ht="12.75" customHeight="1">
+    <row r="3" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
         <v>39</v>
       </c>
@@ -2709,7 +2722,7 @@
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
     </row>
-    <row r="4" spans="1:6" ht="12.75" customHeight="1">
+    <row r="4" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
         <v>40</v>
       </c>
@@ -2719,7 +2732,7 @@
       <c r="E4" s="10"/>
       <c r="F4" s="10"/>
     </row>
-    <row r="5" spans="1:6" ht="12.75" customHeight="1">
+    <row r="5" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="10"/>
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
@@ -2727,7 +2740,7 @@
       <c r="E5" s="10"/>
       <c r="F5" s="10"/>
     </row>
-    <row r="6" spans="1:6" ht="12.75" customHeight="1">
+    <row r="6" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
         <v>41</v>
       </c>
@@ -2737,7 +2750,7 @@
       <c r="E6" s="10"/>
       <c r="F6" s="10"/>
     </row>
-    <row r="7" spans="1:6" ht="12.75" customHeight="1">
+    <row r="7" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
@@ -2745,7 +2758,7 @@
       <c r="E7" s="10"/>
       <c r="F7" s="10"/>
     </row>
-    <row r="8" spans="1:6" ht="12.75" customHeight="1">
+    <row r="8" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
@@ -2753,7 +2766,7 @@
       <c r="E8" s="10"/>
       <c r="F8" s="10"/>
     </row>
-    <row r="9" spans="1:6" ht="12.75" customHeight="1">
+    <row r="9" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="str">
         <f>HYPERLINK("http://www.vertex42.com/ExcelTemplates/excel-timesheet.html","More Templates by Vertex42.com")</f>
         <v>More Templates by Vertex42.com</v>
@@ -2764,7 +2777,7 @@
       <c r="E9" s="10"/>
       <c r="F9" s="10"/>
     </row>
-    <row r="10" spans="1:6" ht="12.75" customHeight="1">
+    <row r="10" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="10"/>
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
@@ -2772,7 +2785,7 @@
       <c r="E10" s="10"/>
       <c r="F10" s="10"/>
     </row>
-    <row r="11" spans="1:6" ht="12.75" customHeight="1">
+    <row r="11" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="10"/>
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
@@ -2780,7 +2793,7 @@
       <c r="E11" s="10"/>
       <c r="F11" s="10"/>
     </row>
-    <row r="12" spans="1:6" ht="12.75" customHeight="1">
+    <row r="12" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="10"/>
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
@@ -2788,7 +2801,7 @@
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
     </row>
-    <row r="13" spans="1:6" ht="12.75" customHeight="1">
+    <row r="13" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="10"/>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
@@ -2796,7 +2809,7 @@
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
     </row>
-    <row r="14" spans="1:6" ht="12.75" customHeight="1">
+    <row r="14" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="10"/>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
@@ -2804,7 +2817,7 @@
       <c r="E14" s="10"/>
       <c r="F14" s="10"/>
     </row>
-    <row r="15" spans="1:6" ht="12.75" customHeight="1">
+    <row r="15" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="10"/>
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
@@ -2812,7 +2825,7 @@
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>
     </row>
-    <row r="16" spans="1:6" ht="12.75" customHeight="1">
+    <row r="16" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="10"/>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
@@ -2820,7 +2833,7 @@
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
     </row>
-    <row r="17" spans="1:6" ht="12.75" customHeight="1">
+    <row r="17" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="10"/>
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
@@ -2828,7 +2841,7 @@
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
     </row>
-    <row r="18" spans="1:6" ht="12.75" customHeight="1">
+    <row r="18" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="10"/>
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
@@ -2836,7 +2849,7 @@
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
     </row>
-    <row r="19" spans="1:6" ht="12.75" customHeight="1">
+    <row r="19" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="10"/>
       <c r="B19" s="10"/>
       <c r="C19" s="10"/>
@@ -2844,7 +2857,7 @@
       <c r="E19" s="10"/>
       <c r="F19" s="10"/>
     </row>
-    <row r="20" spans="1:6" ht="12.75" customHeight="1">
+    <row r="20" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="10"/>
       <c r="B20" s="10"/>
       <c r="C20" s="10"/>
